--- a/2021_cboc_signin_sheets/09September_2021_cboc_signin_sheet.xlsx
+++ b/2021_cboc_signin_sheets/09September_2021_cboc_signin_sheet.xlsx
@@ -728,8 +728,8 @@
     <col customWidth="1" max="9" min="9" width="2.5"/>
     <col customWidth="1" max="10" min="10" width="2.5"/>
     <col customWidth="1" max="11" min="11" width="2.5"/>
-    <col customWidth="1" max="12" min="12" width="4.5"/>
-    <col customWidth="1" max="13" min="13" width="4.5"/>
+    <col customWidth="1" max="12" min="12" width="2.5"/>
+    <col customWidth="1" max="13" min="13" width="2.5"/>
     <col customWidth="1" max="14" min="14" width="4.5"/>
     <col customWidth="1" max="15" min="15" width="4.5"/>
     <col customWidth="1" max="16" min="16" width="4.5"/>
@@ -823,12 +823,12 @@
         </is>
       </c>
       <c r="K2" s="8" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="L2" s="7" t="inlineStr">
         <is>
           <t>MON</t>
         </is>
       </c>
-      <c r="M2" s="6" t="n"/>
+      <c r="M2" s="8" t="n"/>
       <c r="N2" s="5" t="inlineStr">
         <is>
           <t>TUE</t>
@@ -910,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="K3" s="8" t="n"/>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="M3" s="6" t="n"/>
+      <c r="M3" s="8" t="n"/>
       <c r="N3" s="5" t="n">
         <v>7</v>
       </c>
@@ -1003,12 +1003,12 @@
           <t>Time of Arrival</t>
         </is>
       </c>
-      <c r="L4" s="11" t="inlineStr">
+      <c r="L4" s="13" t="inlineStr">
         <is>
           <t>Tech</t>
         </is>
       </c>
-      <c r="M4" s="12" t="inlineStr">
+      <c r="M4" s="14" t="inlineStr">
         <is>
           <t>Time of Arrival</t>
         </is>
@@ -1136,8 +1136,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L5" s="16" t="n"/>
-      <c r="M5" s="17" t="n"/>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N5" s="16" t="n"/>
       <c r="O5" s="17" t="n"/>
       <c r="P5" s="16" t="n"/>
@@ -1205,8 +1213,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L6" s="21" t="n"/>
-      <c r="M6" s="22" t="n"/>
+      <c r="L6" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M6" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N6" s="21" t="n"/>
       <c r="O6" s="22" t="n"/>
       <c r="P6" s="21" t="n"/>
@@ -1254,8 +1270,8 @@
       <c r="I7" s="28" t="n"/>
       <c r="J7" s="27" t="n"/>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="25" t="n"/>
-      <c r="M7" s="26" t="n"/>
+      <c r="L7" s="27" t="n"/>
+      <c r="M7" s="28" t="n"/>
       <c r="N7" s="25" t="n"/>
       <c r="O7" s="26" t="n"/>
       <c r="P7" s="25" t="n"/>
@@ -1307,8 +1323,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L8" s="16" t="n"/>
-      <c r="M8" s="17" t="n"/>
+      <c r="L8" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N8" s="16" t="n"/>
       <c r="O8" s="17" t="n"/>
       <c r="P8" s="16" t="n"/>
@@ -1376,8 +1400,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L9" s="21" t="n"/>
-      <c r="M9" s="22" t="n"/>
+      <c r="L9" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M9" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N9" s="21" t="n"/>
       <c r="O9" s="22" t="n"/>
       <c r="P9" s="21" t="n"/>
@@ -1425,8 +1457,8 @@
       <c r="I10" s="28" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="28" t="n"/>
-      <c r="L10" s="25" t="n"/>
-      <c r="M10" s="26" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="28" t="n"/>
       <c r="N10" s="25" t="n"/>
       <c r="O10" s="26" t="n"/>
       <c r="P10" s="25" t="n"/>
@@ -1478,8 +1510,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L11" s="16" t="n"/>
-      <c r="M11" s="17" t="n"/>
+      <c r="L11" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N11" s="16" t="n"/>
       <c r="O11" s="17" t="n"/>
       <c r="P11" s="16" t="n"/>
@@ -1547,8 +1587,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L12" s="21" t="n"/>
-      <c r="M12" s="22" t="n"/>
+      <c r="L12" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M12" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N12" s="21" t="n"/>
       <c r="O12" s="22" t="n"/>
       <c r="P12" s="21" t="n"/>
@@ -1596,8 +1644,8 @@
       <c r="I13" s="28" t="n"/>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="28" t="n"/>
-      <c r="L13" s="25" t="n"/>
-      <c r="M13" s="26" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="28" t="n"/>
       <c r="N13" s="25" t="n"/>
       <c r="O13" s="26" t="n"/>
       <c r="P13" s="25" t="n"/>
@@ -1649,8 +1697,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L14" s="16" t="n"/>
-      <c r="M14" s="17" t="n"/>
+      <c r="L14" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N14" s="16" t="n"/>
       <c r="O14" s="17" t="n"/>
       <c r="P14" s="16" t="n"/>
@@ -1718,8 +1774,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L15" s="21" t="n"/>
-      <c r="M15" s="22" t="n"/>
+      <c r="L15" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M15" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N15" s="21" t="n"/>
       <c r="O15" s="22" t="n"/>
       <c r="P15" s="21" t="n"/>
@@ -1767,8 +1831,8 @@
       <c r="I16" s="28" t="n"/>
       <c r="J16" s="27" t="n"/>
       <c r="K16" s="28" t="n"/>
-      <c r="L16" s="25" t="n"/>
-      <c r="M16" s="26" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="28" t="n"/>
       <c r="N16" s="25" t="n"/>
       <c r="O16" s="26" t="n"/>
       <c r="P16" s="25" t="n"/>
@@ -1820,8 +1884,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L17" s="16" t="n"/>
-      <c r="M17" s="17" t="n"/>
+      <c r="L17" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N17" s="16" t="n"/>
       <c r="O17" s="17" t="n"/>
       <c r="P17" s="16" t="n"/>
@@ -1889,8 +1961,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L18" s="21" t="n"/>
-      <c r="M18" s="22" t="n"/>
+      <c r="L18" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M18" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N18" s="21" t="n"/>
       <c r="O18" s="22" t="n"/>
       <c r="P18" s="21" t="n"/>
@@ -1938,8 +2018,8 @@
       <c r="I19" s="28" t="n"/>
       <c r="J19" s="27" t="n"/>
       <c r="K19" s="28" t="n"/>
-      <c r="L19" s="25" t="n"/>
-      <c r="M19" s="26" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="28" t="n"/>
       <c r="N19" s="25" t="n"/>
       <c r="O19" s="26" t="n"/>
       <c r="P19" s="25" t="n"/>
@@ -1991,8 +2071,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L20" s="16" t="n"/>
-      <c r="M20" s="17" t="n"/>
+      <c r="L20" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N20" s="16" t="n"/>
       <c r="O20" s="17" t="n"/>
       <c r="P20" s="16" t="n"/>
@@ -2060,8 +2148,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L21" s="21" t="n"/>
-      <c r="M21" s="22" t="n"/>
+      <c r="L21" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M21" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N21" s="21" t="n"/>
       <c r="O21" s="22" t="n"/>
       <c r="P21" s="21" t="n"/>
@@ -2109,8 +2205,8 @@
       <c r="I22" s="28" t="n"/>
       <c r="J22" s="27" t="n"/>
       <c r="K22" s="28" t="n"/>
-      <c r="L22" s="25" t="n"/>
-      <c r="M22" s="26" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="28" t="n"/>
       <c r="N22" s="25" t="n"/>
       <c r="O22" s="26" t="n"/>
       <c r="P22" s="25" t="n"/>
@@ -2162,8 +2258,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L23" s="16" t="n"/>
-      <c r="M23" s="17" t="n"/>
+      <c r="L23" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M23" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N23" s="16" t="n"/>
       <c r="O23" s="17" t="n"/>
       <c r="P23" s="16" t="n"/>
@@ -2231,8 +2335,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L24" s="21" t="n"/>
-      <c r="M24" s="22" t="n"/>
+      <c r="L24" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M24" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N24" s="21" t="n"/>
       <c r="O24" s="22" t="n"/>
       <c r="P24" s="21" t="n"/>
@@ -2280,8 +2392,8 @@
       <c r="I25" s="28" t="n"/>
       <c r="J25" s="27" t="n"/>
       <c r="K25" s="28" t="n"/>
-      <c r="L25" s="25" t="n"/>
-      <c r="M25" s="26" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="28" t="n"/>
       <c r="N25" s="25" t="n"/>
       <c r="O25" s="26" t="n"/>
       <c r="P25" s="25" t="n"/>
@@ -2333,8 +2445,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L26" s="16" t="n"/>
-      <c r="M26" s="17" t="n"/>
+      <c r="L26" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M26" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N26" s="16" t="n"/>
       <c r="O26" s="17" t="n"/>
       <c r="P26" s="16" t="n"/>
@@ -2402,8 +2522,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="L27" s="29" t="n"/>
-      <c r="M27" s="30" t="n"/>
+      <c r="L27" s="31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M27" s="32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N27" s="29" t="n"/>
       <c r="O27" s="30" t="n"/>
       <c r="P27" s="29" t="n"/>
